--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>281.2152725015627</v>
+        <v>193.712152791303</v>
       </c>
       <c r="R2">
-        <v>2530.937452514064</v>
+        <v>1743.409375121727</v>
       </c>
       <c r="S2">
-        <v>0.05781363709083443</v>
+        <v>0.06202598162065061</v>
       </c>
       <c r="T2">
-        <v>0.06804287838816517</v>
+        <v>0.06607135865683017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>433.3139305223859</v>
+        <v>343.545682859748</v>
       </c>
       <c r="R3">
-        <v>3899.825374701473</v>
+        <v>3091.911145737732</v>
       </c>
       <c r="S3">
-        <v>0.08908283715453276</v>
+        <v>0.1100021754126584</v>
       </c>
       <c r="T3">
-        <v>0.1048446864786432</v>
+        <v>0.117176592692594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>187.9302138298782</v>
+        <v>197.325861077187</v>
       </c>
       <c r="R4">
-        <v>1691.371924468904</v>
+        <v>1775.932749694683</v>
       </c>
       <c r="S4">
-        <v>0.03863562986502846</v>
+        <v>0.06318307889355178</v>
       </c>
       <c r="T4">
-        <v>0.04547161529079905</v>
+        <v>0.06730392260698684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>109.028434958932</v>
+        <v>63.7696366783245</v>
       </c>
       <c r="R5">
-        <v>654.1706097535921</v>
+        <v>382.617820069947</v>
       </c>
       <c r="S5">
-        <v>0.0224146089763397</v>
+        <v>0.02041882378348595</v>
       </c>
       <c r="T5">
-        <v>0.01758702144154555</v>
+        <v>0.01450036897763665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>317.6312751333085</v>
+        <v>170.376384107079</v>
       </c>
       <c r="R6">
-        <v>2858.681476199776</v>
+        <v>1533.387456963711</v>
       </c>
       <c r="S6">
-        <v>0.06530022038242618</v>
+        <v>0.05455394675523447</v>
       </c>
       <c r="T6">
-        <v>0.07685409840624299</v>
+        <v>0.05811199255588509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>11.10415706885467</v>
+        <v>9.647653934691778</v>
       </c>
       <c r="R7">
-        <v>99.93741361969199</v>
+        <v>86.828885412226</v>
       </c>
       <c r="S7">
-        <v>0.002282847945162082</v>
+        <v>0.003089146432027346</v>
       </c>
       <c r="T7">
-        <v>0.002686763070575991</v>
+        <v>0.003290622679738335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>17.10997379993512</v>
+        <v>17.10997379993511</v>
       </c>
       <c r="R8">
         <v>153.989764199416</v>
       </c>
       <c r="S8">
-        <v>0.003517553677308324</v>
+        <v>0.005478556224543882</v>
       </c>
       <c r="T8">
-        <v>0.004139931150031006</v>
+        <v>0.005835871416711832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>7.420673115606887</v>
+        <v>9.827631321039332</v>
       </c>
       <c r="R9">
-        <v>66.78605804046198</v>
+        <v>88.44868188935399</v>
       </c>
       <c r="S9">
-        <v>0.00152557895828017</v>
+        <v>0.003146774587498588</v>
       </c>
       <c r="T9">
-        <v>0.001795506886493017</v>
+        <v>0.003352009383009861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>4.305131993671</v>
+        <v>3.175987553431</v>
       </c>
       <c r="R10">
-        <v>25.830791962026</v>
+        <v>19.055925320586</v>
       </c>
       <c r="S10">
-        <v>0.0008850704888684616</v>
+        <v>0.001016940562468266</v>
       </c>
       <c r="T10">
-        <v>0.0006944468083935642</v>
+        <v>0.0007221774153338489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>12.54209110936978</v>
+        <v>8.485437639424221</v>
       </c>
       <c r="R11">
-        <v>112.878819984328</v>
+        <v>76.36893875481799</v>
       </c>
       <c r="S11">
-        <v>0.002578465590816217</v>
+        <v>0.002717008672311516</v>
       </c>
       <c r="T11">
-        <v>0.003034685749805402</v>
+        <v>0.002894213840256981</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>137.4964437166246</v>
+        <v>192.2270245456403</v>
       </c>
       <c r="R12">
-        <v>1237.467993449622</v>
+        <v>1730.043220910762</v>
       </c>
       <c r="S12">
-        <v>0.02826720408035132</v>
+        <v>0.06155044853745251</v>
       </c>
       <c r="T12">
-        <v>0.03326865470495917</v>
+        <v>0.06556481097999811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>211.8630468740618</v>
+        <v>340.9118295369769</v>
       </c>
       <c r="R13">
-        <v>1906.767421866557</v>
+        <v>3068.206465832792</v>
       </c>
       <c r="S13">
-        <v>0.04355586094587871</v>
+        <v>0.10915882441255</v>
       </c>
       <c r="T13">
-        <v>0.05126240621699455</v>
+        <v>0.1162782377621949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>91.88596280228519</v>
+        <v>195.8130277021887</v>
       </c>
       <c r="R14">
-        <v>826.9736652205669</v>
+        <v>1762.317249319698</v>
       </c>
       <c r="S14">
-        <v>0.01889037412491069</v>
+        <v>0.06269867472086239</v>
       </c>
       <c r="T14">
-        <v>0.02223273770630867</v>
+        <v>0.06678792526212626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>53.3079940413235</v>
+        <v>63.28073555734701</v>
       </c>
       <c r="R15">
-        <v>319.847964247941</v>
+        <v>379.6844133440821</v>
       </c>
       <c r="S15">
-        <v>0.01095932306282659</v>
+        <v>0.02026227928430455</v>
       </c>
       <c r="T15">
-        <v>0.00859893874991125</v>
+        <v>0.01438919935182375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>155.3015608132164</v>
+        <v>169.0701636310518</v>
       </c>
       <c r="R16">
-        <v>1397.714047318948</v>
+        <v>1521.631472679466</v>
       </c>
       <c r="S16">
-        <v>0.03192766878066892</v>
+        <v>0.05413569933982389</v>
       </c>
       <c r="T16">
-        <v>0.03757678280381163</v>
+        <v>0.05766646675735933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H17">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I17">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J17">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>390.4101984510639</v>
+        <v>75.251954616218</v>
       </c>
       <c r="R17">
-        <v>2342.461190706384</v>
+        <v>451.511727697308</v>
       </c>
       <c r="S17">
-        <v>0.08026247411468393</v>
+        <v>0.02409542347594585</v>
       </c>
       <c r="T17">
-        <v>0.06297579648596446</v>
+        <v>0.0171112956739555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H18">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I18">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J18">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>601.5682437941388</v>
+        <v>133.458245972888</v>
       </c>
       <c r="R18">
-        <v>3609.409462764832</v>
+        <v>800.749475837328</v>
       </c>
       <c r="S18">
-        <v>0.1236733973326135</v>
+        <v>0.04273288274668468</v>
       </c>
       <c r="T18">
-        <v>0.09703701246510173</v>
+        <v>0.03034663376673815</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H19">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I19">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J19">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>260.9028713967373</v>
+        <v>76.65578296672199</v>
       </c>
       <c r="R19">
-        <v>1565.417228380423</v>
+        <v>459.9346978003319</v>
       </c>
       <c r="S19">
-        <v>0.05363771244964583</v>
+        <v>0.02454492460539083</v>
       </c>
       <c r="T19">
-        <v>0.04208539171587285</v>
+        <v>0.01743050760809679</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H20">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I20">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J20">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>151.363802365638</v>
+        <v>24.772786508547</v>
       </c>
       <c r="R20">
-        <v>605.455209462552</v>
+        <v>99.091146034188</v>
       </c>
       <c r="S20">
-        <v>0.03111812477612557</v>
+        <v>0.007932163153061731</v>
       </c>
       <c r="T20">
-        <v>0.01627733437111187</v>
+        <v>0.003755335231510983</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H21">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I21">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J21">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>440.9664100244426</v>
+        <v>66.18663692367399</v>
       </c>
       <c r="R21">
-        <v>2645.798460146656</v>
+        <v>397.119821542044</v>
       </c>
       <c r="S21">
-        <v>0.09065607202489172</v>
+        <v>0.02119273915552082</v>
       </c>
       <c r="T21">
-        <v>0.0711308541759995</v>
+        <v>0.01504996275301593</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H22">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I22">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J22">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>208.935606057266</v>
+        <v>153.6684380614831</v>
       </c>
       <c r="R22">
-        <v>1880.420454515394</v>
+        <v>1383.015942553348</v>
       </c>
       <c r="S22">
-        <v>0.04295402307455119</v>
+        <v>0.04920411846924436</v>
       </c>
       <c r="T22">
-        <v>0.05055408231369488</v>
+        <v>0.05241324480211436</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H23">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I23">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J23">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>321.9409382762014</v>
+        <v>272.5287377539964</v>
       </c>
       <c r="R23">
-        <v>2897.468444485813</v>
+        <v>2452.758639785968</v>
       </c>
       <c r="S23">
-        <v>0.06618622240753161</v>
+        <v>0.08726278777790454</v>
       </c>
       <c r="T23">
-        <v>0.07789686497619944</v>
+        <v>0.09295412660989195</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H24">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I24">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J24">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>139.6272427657676</v>
+        <v>156.5351291797213</v>
       </c>
       <c r="R24">
-        <v>1256.645184891909</v>
+        <v>1408.816162617492</v>
       </c>
       <c r="S24">
-        <v>0.02870526436720847</v>
+        <v>0.05012202335053227</v>
       </c>
       <c r="T24">
-        <v>0.03378422307818701</v>
+        <v>0.0533910160689255</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H25">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I25">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J25">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>81.0052808760345</v>
+        <v>50.587329307438</v>
       </c>
       <c r="R25">
-        <v>486.031685256207</v>
+        <v>303.5239758446281</v>
       </c>
       <c r="S25">
-        <v>0.01665346931320078</v>
+        <v>0.016197893176281</v>
       </c>
       <c r="T25">
-        <v>0.01306669780394318</v>
+        <v>0.01150288724791173</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H26">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I26">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J26">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>235.9917453357773</v>
+        <v>135.1565838850849</v>
       </c>
       <c r="R26">
-        <v>2123.925708021996</v>
+        <v>1216.409254965764</v>
       </c>
       <c r="S26">
-        <v>0.04851635901531427</v>
+        <v>0.04327668485000996</v>
       </c>
       <c r="T26">
-        <v>0.05710058876124486</v>
+        <v>0.04609921989935327</v>
       </c>
     </row>
   </sheetData>
